--- a/data/form_域名反向代理申请.xlsx
+++ b/data/form_域名反向代理申请.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8250"/>
+    <workbookView windowWidth="23040" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>域名反向代理申请单v1.0</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>执行时间</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -90,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -112,45 +121,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +151,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -171,92 +264,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,25 +274,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,157 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +474,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -506,21 +536,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -554,6 +569,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,16 +598,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,7 +616,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +636,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,185 +670,197 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -833,81 +869,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1207,159 +1231,159 @@
   <sheetPr/>
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="16379" width="9" style="1"/>
+    <col min="1" max="1" width="8.77777777777778" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.4444444444444" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="16379" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" ht="135" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="55" customHeight="1" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1380,14 +1404,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1403,7 +1447,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/form_域名反向代理申请.xlsx
+++ b/data/form_域名反向代理申请.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>域名反向代理申请单v1.0</t>
   </si>
@@ -76,22 +76,19 @@
     <t>事业部领导审批（签字）</t>
   </si>
   <si>
-    <t>执行者</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
     <t>step</t>
   </si>
   <si>
     <t>script</t>
   </si>
   <si>
+    <t>executor</t>
+  </si>
+  <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>executionTime</t>
   </si>
 </sst>
 </file>
@@ -100,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,23 +118,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,28 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -182,86 +218,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,19 +277,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,151 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +570,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,26 +615,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,30 +659,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -678,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,137 +687,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1229,161 +1220,147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.77777777777778" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.4444444444444" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="16379" width="9" style="4"/>
+    <col min="1" max="1" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="135" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="55" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1404,32 +1381,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:3">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:3">
+    <row r="2" ht="22" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/form_域名反向代理申请.xlsx
+++ b/data/form_域名反向代理申请.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,25 +121,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,22 +168,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,86 +244,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,37 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,145 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +577,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,26 +647,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,192 +670,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,105 +833,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1231,159 +1225,159 @@
   <sheetPr/>
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.77777777777778" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.4444444444444" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="16379" width="9" style="4"/>
+    <col min="1" max="1" width="8.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16379" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="135" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="55" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1406,11 +1400,11 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
   </cols>
@@ -1447,7 +1441,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/form_域名反向代理申请.xlsx
+++ b/data/form_域名反向代理申请.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8250"/>
+    <workbookView windowWidth="23040" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>域名反向代理申请单v1.0</t>
   </si>
@@ -76,22 +76,19 @@
     <t>事业部领导审批（签字）</t>
   </si>
   <si>
-    <t>执行者</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>执行时间</t>
-  </si>
-  <si>
     <t>step</t>
   </si>
   <si>
     <t>script</t>
   </si>
   <si>
+    <t>executor</t>
+  </si>
+  <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>executionTime</t>
   </si>
 </sst>
 </file>
@@ -99,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,18 +118,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,9 +140,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +162,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,74 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -244,22 +218,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,20 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,32 +601,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -643,6 +611,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,153 +656,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,15 +833,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -852,80 +861,68 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1223,21 +1220,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="16379" width="9" style="1"/>
@@ -1252,28 +1249,28 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1282,11 +1279,11 @@
         <v>6</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1295,50 +1292,50 @@
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3"/>
@@ -1352,7 +1349,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3"/>
@@ -1364,20 +1361,6 @@
         <v>17</v>
       </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="55" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1398,32 +1381,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:3">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:3">
+    <row r="2" ht="22" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,7 +1436,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
